--- a/doc/ue_render.xlsx
+++ b/doc/ue_render.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="8"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="camera" sheetId="8" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="258">
   <si>
     <t>UUserWidget::AddToScreen(ULocalPlayer* Player, int32 ZOrder)</t>
   </si>
@@ -894,13 +894,25 @@
   </si>
   <si>
     <t>！！！在移动平台才需要进行非透明物体排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UGameViewportClient是在gameinstance里面创建的了，比world级别高，World切换不会重复创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UMG加到UGameViewportClient之后，每次切换场景都会自动从UGameViewportClient删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!!怎么能不删除呢？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -999,7 +1011,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1287,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1391,10 +1403,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:E122"/>
+  <dimension ref="B2:E125"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1404,393 +1416,411 @@
     <col min="4" max="4" width="104.125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C2" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C3" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D5" s="3"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B7" s="3" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C18" t="s">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
         <v>64</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D21" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D26" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B25" s="3" t="s">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C28" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C28" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C31" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C31" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D32" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D35" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C37" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C35" t="s">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C38" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D36" t="s">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B40" s="3" t="s">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B43" s="3" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C41" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C43" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C44" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C45" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C46" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C47" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C48" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C49" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C50" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C51" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C52" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C54" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C63" s="2" t="s">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C66" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C64" t="s">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C67" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B65" s="3" t="s">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B68" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C68" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D66" s="2" t="s">
+    <row r="69" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D69" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D67" s="2" t="s">
+    <row r="70" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D70" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E70" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B70" s="3" t="s">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B73" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C73" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D72" t="s">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D75" t="s">
         <v>19</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E75" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C74" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C75" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D76" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C77" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D79" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C80" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B94" s="3" t="s">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B97" s="3" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B95" s="3"/>
-      <c r="C95" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B96" s="3"/>
-      <c r="D96" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B97" s="3"/>
-      <c r="D97" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B98" s="3"/>
-      <c r="D98" t="s">
-        <v>29</v>
+      <c r="C98" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B99" s="3"/>
-      <c r="C99" t="s">
-        <v>24</v>
-      </c>
       <c r="D99" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B100" s="3"/>
-      <c r="C100" t="s">
-        <v>30</v>
-      </c>
       <c r="D100" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B101" s="3"/>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B111" s="3" t="s">
+      <c r="D101" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B102" s="3"/>
+      <c r="C102" t="s">
+        <v>24</v>
+      </c>
+      <c r="D102" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B103" s="3"/>
+      <c r="C103" t="s">
+        <v>30</v>
+      </c>
+      <c r="D103" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B104" s="3"/>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B114" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C112" t="s">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C115" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C113" t="s">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C116" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C114" t="s">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C117" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C115" t="s">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C118" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C116" t="s">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C119" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C117" t="s">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C120" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C118" t="s">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C121" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C119" t="s">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C122" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C120" t="s">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C123" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C121" t="s">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C124" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C122" t="s">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C125" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2844,8 +2874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/ue_render.xlsx
+++ b/doc/ue_render.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2548B714-F3D4-4511-8B68-14E9D80F434D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="camera" sheetId="8" r:id="rId1"/>
@@ -912,7 +913,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1086,6 +1087,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1121,6 +1139,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1296,7 +1331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:E25"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -1402,11 +1437,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:E125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1832,7 +1867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A6:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1954,7 +1989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A5:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2002,7 +2037,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:E50"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -2257,7 +2292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A5:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2309,7 +2344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2450,7 +2485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:G110"/>
   <sheetViews>
     <sheetView topLeftCell="A79" workbookViewId="0">
@@ -2871,7 +2906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A4:E43"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">

--- a/doc/ue_render.xlsx
+++ b/doc/ue_render.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2548B714-F3D4-4511-8B68-14E9D80F434D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="camera" sheetId="8" r:id="rId1"/>
@@ -913,7 +912,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1087,23 +1086,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1139,23 +1121,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1331,7 +1296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:E25"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -1437,15 +1402,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="72.625" customWidth="1"/>
     <col min="4" max="4" width="104.125" customWidth="1"/>
@@ -1518,7 +1484,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D21" t="s">
@@ -1603,7 +1569,7 @@
       <c r="D36" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1867,7 +1833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1989,7 +1955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2037,7 +2003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E50"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -2292,7 +2258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2344,7 +2310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2485,7 +2451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G110"/>
   <sheetViews>
     <sheetView topLeftCell="A79" workbookViewId="0">
@@ -2906,7 +2872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:E43"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">

--- a/doc/ue_render.xlsx
+++ b/doc/ue_render.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8174E38-3617-426C-9B08-254BC5AC18AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="camera" sheetId="8" r:id="rId1"/>
@@ -16,13 +17,14 @@
     <sheet name="Sheet2" sheetId="14" r:id="rId7"/>
     <sheet name="FMobileSceneRenderer" sheetId="15" r:id="rId8"/>
     <sheet name="渲染排序" sheetId="16" r:id="rId9"/>
+    <sheet name="对象的LastRenderTime" sheetId="17" r:id="rId10"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="303">
   <si>
     <t>UUserWidget::AddToScreen(ULocalPlayer* Player, int32 ZOrder)</t>
   </si>
@@ -906,13 +908,157 @@
   </si>
   <si>
     <t>!!!怎么能不删除呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPrimitiveComponent</t>
+  </si>
+  <si>
+    <t>private:</t>
+  </si>
+  <si>
+    <t>/**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * The value of WorldSettings-&gt;TimeSeconds for the frame when this component was last rendered.  This is written</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * from the render thread, which is up to a frame behind the game thread, so you should allow this time to</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * be at least a frame behind the game thread's world time before you consider the actor non-visible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> */</t>
+  </si>
+  <si>
+    <t>mutable float LastRenderTime;</t>
+  </si>
+  <si>
+    <t>/** Same as LastRenderTime but only updated if the component is on screen. Used by the texture streamer. */</t>
+  </si>
+  <si>
+    <t>mutable float LastRenderTimeOnScreen;</t>
+  </si>
+  <si>
+    <t>friend class FPrimitiveSceneInfo;</t>
+  </si>
+  <si>
+    <t>void SetLastRenderTime(float InLastRenderTime);</t>
+  </si>
+  <si>
+    <t>float GetLastRenderTime() const { return LastRenderTime; }</t>
+  </si>
+  <si>
+    <t>float GetLastRenderTimeOnScreen() const { return LastRenderTimeOnScreen; }</t>
+  </si>
+  <si>
+    <t>对应的最近渲染时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRenderingThread</t>
+  </si>
+  <si>
+    <t>void FDeferredShadingSceneRenderer::Render(FRHICommandListImmediate&amp; RHICmdList)</t>
+  </si>
+  <si>
+    <t>bool bDoInitViewAftersPrepass = false;</t>
+  </si>
+  <si>
+    <t>SCOPED_GPU_STAT(RHICmdList, VisibilityCommands);</t>
+  </si>
+  <si>
+    <t>bDoInitViewAftersPrepass = InitViews(RHICmdList, BasePassDepthStencilAccess, ILCTaskData);</t>
+  </si>
+  <si>
+    <t>bool FDeferredShadingSceneRenderer::InitViews(FRHICommandListImmediate&amp; RHICmdList, FExclusiveDepthStencil::Type BasePassDepthStencilAccess, struct FILCUpdatePrimTaskData&amp; ILCTaskData)</t>
+  </si>
+  <si>
+    <t>ComputeViewVisibility(RHICmdList, BasePassDepthStencilAccess, ViewCommandsPerView, DynamicIndexBufferForInitViews, DynamicVertexBufferForInitViews, DynamicReadBufferForInitViews);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">void FSceneRenderer::ComputeViewVisibility(FRHICommandListImmediate&amp; RHICmdList, FExclusiveDepthStencil::Type BasePassDepthStencilAccess, FViewVisibleCommandsPerView&amp; ViewCommandsPerView, </t>
+  </si>
+  <si>
+    <t>FGlobalDynamicIndexBuffer&amp; DynamicIndexBuffer, FGlobalDynamicVertexBuffer&amp; DynamicVertexBuffer, FGlobalDynamicReadBuffer&amp; DynamicReadBuffer)</t>
+  </si>
+  <si>
+    <t>计算可见性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void ComputeRelevance()</t>
+  </si>
+  <si>
+    <t>PrimitiveSceneInfo-&gt;LastRenderTime = CurrentWorldTime;</t>
+  </si>
+  <si>
+    <t>设置最新的渲染时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPrimitiveSceneInfo* PrimitiveSceneInfo = Scene-&gt;Primitives[BitIndex]</t>
+  </si>
+  <si>
+    <t>// If the primitive is definitely unoccluded or if in Wireframe mode and the primitive is estimated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// to be unoccluded, then update the primitive components's LastRenderTime </t>
+  </si>
+  <si>
+    <t>// on the game thread. This signals that the primitive is visible.</t>
+  </si>
+  <si>
+    <t>if (View.PrimitiveDefinitelyUnoccludedMap[BitIndex] || (View.Family-&gt;EngineShowFlags.Wireframe &amp;&amp; View.PrimitiveVisibilityMap[BitIndex]))</t>
+  </si>
+  <si>
+    <t>PrimitiveSceneInfo-&gt;UpdateComponentLastRenderTime(CurrentWorldTime, /*bUpdateLastRenderTimeOnScreen=*/true);</t>
+  </si>
+  <si>
+    <t>ComponentForDebuggingOnly-&gt;LastRenderTime = CurrentWorldTime;</t>
+  </si>
+  <si>
+    <t>if (bUpdateLastRenderTimeOnScreen)</t>
+  </si>
+  <si>
+    <t>ComponentForDebuggingOnly-&gt;LastRenderTimeOnScreen = CurrentWorldTime;</t>
+  </si>
+  <si>
+    <t>if (OwnerLastRenderTime)</t>
+  </si>
+  <si>
+    <t>*OwnerLastRenderTime = CurrentWorldTime; // Sets OwningActor-&gt;LastRenderTime</t>
+  </si>
+  <si>
+    <t>void FPrimitiveSceneInfo::UpdateComponentLastRenderTime(float CurrentWorldTime, bool bUpdateLastRenderTimeOnScreen) const</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置Componet和Actor的数据，这些都是在构造FPrimitiveSceneInfo传入的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接设置Compnent上面的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置Actor上面的；构造的时候取得是地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否最近进行渲染了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1086,6 +1232,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1121,6 +1284,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1296,7 +1476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:E25"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -1401,11 +1581,299 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F889CD6B-D1D7-407E-90EB-3B809212455D}">
+  <dimension ref="B2:N68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B2" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B4" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D18" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D22" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D23" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B26" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D30" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E32" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E33" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D36" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C39" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C40" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D41" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D43" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D44" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D45" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D47" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D48" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="D49" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="D50" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="D51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="E52" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="D53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C56" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C57" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C58" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="D59" t="s">
+        <v>293</v>
+      </c>
+      <c r="N59" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="D60" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="D61" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="E62" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="D63" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="D64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="65" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="D65" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="E66" t="s">
+        <v>297</v>
+      </c>
+      <c r="N66" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="67" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="D67" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C68" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:E125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
@@ -1833,7 +2301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A6:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1955,7 +2423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A5:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2003,7 +2471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:E50"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -2258,7 +2726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A5:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2310,7 +2778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2451,7 +2919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:G110"/>
   <sheetViews>
     <sheetView topLeftCell="A79" workbookViewId="0">
@@ -2872,7 +3340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A4:E43"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">

--- a/doc/ue_render.xlsx
+++ b/doc/ue_render.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8174E38-3617-426C-9B08-254BC5AC18AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4E30A0-B6BF-4A5C-9C9A-EE91D3101DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1032,26 +1032,27 @@
     <t>if (OwnerLastRenderTime)</t>
   </si>
   <si>
+    <t>void FPrimitiveSceneInfo::UpdateComponentLastRenderTime(float CurrentWorldTime, bool bUpdateLastRenderTimeOnScreen) const</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置Componet和Actor的数据，这些都是在构造FPrimitiveSceneInfo传入的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接设置Compnent上面的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置Actor上面的；构造的时候取得是地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否最近进行渲染了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>*OwnerLastRenderTime = CurrentWorldTime; // Sets OwningActor-&gt;LastRenderTime</t>
-  </si>
-  <si>
-    <t>void FPrimitiveSceneInfo::UpdateComponentLastRenderTime(float CurrentWorldTime, bool bUpdateLastRenderTimeOnScreen) const</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置Componet和Actor的数据，这些都是在构造FPrimitiveSceneInfo传入的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直接设置Compnent上面的数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置Actor上面的；构造的时候取得是地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否最近进行渲染了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1585,15 +1586,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F889CD6B-D1D7-407E-90EB-3B809212455D}">
   <dimension ref="B2:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="L59" sqref="L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.15">
@@ -1793,12 +1794,12 @@
     </row>
     <row r="56" spans="3:14" x14ac:dyDescent="0.15">
       <c r="C56" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="57" spans="3:14" x14ac:dyDescent="0.15">
       <c r="C57" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="58" spans="3:14" x14ac:dyDescent="0.15">
@@ -1811,7 +1812,7 @@
         <v>293</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="60" spans="3:14" x14ac:dyDescent="0.15">
@@ -1846,10 +1847,10 @@
     </row>
     <row r="66" spans="3:14" x14ac:dyDescent="0.15">
       <c r="E66" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="67" spans="3:14" x14ac:dyDescent="0.15">
